--- a/115/115.xlsx
+++ b/115/115.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="web 112" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="web 115" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>

--- a/115/115.xlsx
+++ b/115/115.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t xml:space="preserve">H 04 PART II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 07</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -346,7 +355,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,9 +383,15 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -396,11 +411,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+        <f aca="false">(9/10)*10</f>
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <f aca="false">(4/10)*10</f>
+        <v>4</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -421,9 +444,16 @@
       <c r="C3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <f aca="false">(10/10)*10</f>
+        <v>10</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -444,9 +474,15 @@
       <c r="C4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -467,9 +503,15 @@
       <c r="C5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -488,11 +530,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+        <f aca="false">(10/10)*10</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <f aca="false">(10/10)*10</f>
+        <v>10</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -511,11 +561,18 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+        <f aca="false">(8/10)*10</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -594,10 +651,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="7" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -606,7 +663,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -616,22 +673,22 @@
         <v>0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,11 +697,11 @@
       </c>
       <c r="B15" s="13" t="n">
         <f aca="false">SUM(B2:L2)</f>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="C15" s="13" t="n">
         <f aca="false">(B15*40)/B12</f>
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="D15" s="14" t="n">
         <v>0</v>
@@ -654,11 +711,11 @@
       </c>
       <c r="F15" s="15" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="G15" s="16" t="n">
         <f aca="false">((F15-F24)*50)/(F25-F24)+50</f>
-        <v>50</v>
+        <v>80.6532663316583</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,21 +724,21 @@
       </c>
       <c r="B16" s="13" t="n">
         <f aca="false">SUM(B3:L3)</f>
-        <v>20</v>
+        <v>48.5</v>
       </c>
       <c r="C16" s="13" t="n">
         <f aca="false">(B16*40)/B12</f>
-        <v>40</v>
+        <v>38.8</v>
       </c>
       <c r="D16" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="15" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="G16" s="16" t="n">
         <f aca="false">((F16-F24)*50)/(F25-F24)+50</f>
@@ -748,11 +805,11 @@
       </c>
       <c r="B19" s="13" t="n">
         <f aca="false">SUM(B6:L6)</f>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C19" s="13" t="n">
         <f aca="false">(B19*40)/B12</f>
-        <v>20</v>
+        <v>38.4</v>
       </c>
       <c r="D19" s="14" t="n">
         <v>0</v>
@@ -762,11 +819,11 @@
       </c>
       <c r="F19" s="15" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>20</v>
+        <v>38.4</v>
       </c>
       <c r="G19" s="16" t="n">
         <f aca="false">((F19-F24)*50)/(F25-F24)+50</f>
-        <v>75</v>
+        <v>98.2412060301508</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,11 +832,11 @@
       </c>
       <c r="B20" s="13" t="n">
         <f aca="false">SUM(B7:L7)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C20" s="13" t="n">
         <f aca="false">(B20*40)/B12</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D20" s="14" t="n">
         <v>0</v>
@@ -789,11 +846,11 @@
       </c>
       <c r="F20" s="15" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G20" s="16" t="n">
         <f aca="false">((F20-F24)*50)/(F25-F24)+50</f>
-        <v>50</v>
+        <v>75.1256281407035</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,7 +882,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18" t="n">
         <f aca="false">MIN(F15:F23)</f>
@@ -834,11 +891,11 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18" t="n">
         <f aca="false">MAX(F15:F20)</f>
-        <v>40</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/115/115.xlsx
+++ b/115/115.xlsx
@@ -108,7 +108,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDAA2"/>
         <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -198,7 +204,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -215,6 +221,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,11 +233,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -235,23 +245,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -259,19 +269,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,7 +301,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -355,7 +365,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,28 +418,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <f aca="false">(9/10)*10</f>
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>8.5</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <f aca="false">(4/10)*10</f>
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -438,28 +448,28 @@
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>8.5</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <f aca="false">(10/10)*10</f>
         <v>10</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -468,27 +478,27 @@
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="B4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -497,27 +507,27 @@
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="B5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -526,29 +536,29 @@
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <f aca="false">(10/10)*10</f>
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="n">
         <f aca="false">(10/10)*10</f>
         <v>10</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -557,89 +567,89 @@
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="B7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <f aca="false">(8/10)*10</f>
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -650,250 +660,250 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="14" t="n">
         <f aca="false">SUM(B2:L2)</f>
-        <v>30.5</v>
-      </c>
-      <c r="C15" s="13" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="C15" s="14" t="n">
         <f aca="false">(B15*40)/B12</f>
-        <v>24.4</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>24.4</v>
-      </c>
-      <c r="G15" s="16" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="G15" s="17" t="n">
         <f aca="false">((F15-F24)*50)/(F25-F24)+50</f>
-        <v>80.6532663316583</v>
+        <v>84.9246231155779</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="14" t="n">
         <f aca="false">SUM(B3:L3)</f>
         <v>48.5</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="14" t="n">
         <f aca="false">(B16*40)/B12</f>
         <v>38.8</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15" t="n">
+      <c r="E16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16" t="n">
         <f aca="false">C16+D16+E16</f>
         <v>39.8</v>
       </c>
-      <c r="G16" s="16" t="n">
+      <c r="G16" s="17" t="n">
         <f aca="false">((F16-F24)*50)/(F25-F24)+50</f>
         <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="14" t="n">
         <f aca="false">SUM(B4:L4)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="14" t="n">
         <f aca="false">(B17*40)/B12</f>
         <v>0</v>
       </c>
-      <c r="D17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15" t="n">
+      <c r="D17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16" t="n">
         <f aca="false">C17+D17+E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="G17" s="17" t="n">
         <f aca="false">((F17-F24)*50)/(F25-F24)+50</f>
         <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
+      <c r="A18" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="14" t="n">
         <f aca="false">SUM(B5:L5)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C18" s="14" t="n">
         <f aca="false">(B18*40)/B12</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G18" s="17" t="n">
         <f aca="false">((F18-F24)*50)/(F25-F24)+50</f>
-        <v>50</v>
+        <v>59.5477386934673</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+      <c r="A19" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="14" t="n">
         <f aca="false">SUM(B6:L6)</f>
-        <v>48</v>
-      </c>
-      <c r="C19" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="C19" s="14" t="n">
         <f aca="false">(B19*40)/B12</f>
-        <v>38.4</v>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15" t="n">
+        <v>36</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>38.4</v>
-      </c>
-      <c r="G19" s="16" t="n">
+        <v>36</v>
+      </c>
+      <c r="G19" s="17" t="n">
         <f aca="false">((F19-F24)*50)/(F25-F24)+50</f>
-        <v>98.2412060301508</v>
+        <v>95.2261306532663</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+      <c r="A20" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B20" s="13" t="n">
+      <c r="B20" s="14" t="n">
         <f aca="false">SUM(B7:L7)</f>
         <v>25</v>
       </c>
-      <c r="C20" s="13" t="n">
+      <c r="C20" s="14" t="n">
         <f aca="false">(B20*40)/B12</f>
         <v>20</v>
       </c>
-      <c r="D20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15" t="n">
+      <c r="D20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16" t="n">
         <f aca="false">C20+D20+E20</f>
         <v>20</v>
       </c>
-      <c r="G20" s="16" t="n">
+      <c r="G20" s="17" t="n">
         <f aca="false">((F20-F24)*50)/(F25-F24)+50</f>
         <v>75.1256281407035</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="18" t="n">
+      <c r="F24" s="19" t="n">
         <f aca="false">MIN(F15:F23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="18" t="n">
+      <c r="F25" s="19" t="n">
         <f aca="false">MAX(F15:F20)</f>
         <v>39.8</v>
       </c>

--- a/115/115.xlsx
+++ b/115/115.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C72F8-91A0-469F-940D-6C5D05EED464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B6B153-452C-45E6-879A-F38A6B12736C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -79,6 +78,24 @@
   </si>
   <si>
     <t>Q 01</t>
+  </si>
+  <si>
+    <t>H 10</t>
+  </si>
+  <si>
+    <t>H 11</t>
+  </si>
+  <si>
+    <t>H 12</t>
+  </si>
+  <si>
+    <t>H 13</t>
+  </si>
+  <si>
+    <t>H 14</t>
+  </si>
+  <si>
+    <t>H 15</t>
   </si>
 </sst>
 </file>
@@ -110,7 +127,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +188,12 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -184,11 +207,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -225,6 +245,12 @@
     <xf numFmtId="4" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,574 +633,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="12" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>4.25</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <f>(9/10)*10</f>
         <v>9</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>8.5</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>(4/10)*10</f>
         <v>4</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>(30/34)*10</f>
         <v>8.8235294117647065</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>(10/10)*10</f>
         <v>10</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>(34/34)*10</f>
         <v>10</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="H3" s="5">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5">
+        <v>10</v>
+      </c>
+      <c r="J3" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5">
+        <v>10</v>
+      </c>
+      <c r="M3" s="5">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>4.5</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <f>(24/34)*10</f>
         <v>7.0588235294117654</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <f>(10/10)*10</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <f>(10/10)*10</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <f>(34/34)*10</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="20">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6">
-        <f>(10/10)*10</f>
-        <v>10</v>
-      </c>
-      <c r="D6" s="6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6">
-        <f>(10/10)*10</f>
-        <v>10</v>
-      </c>
-      <c r="G6" s="6">
-        <f>(34/34)*10</f>
-        <v>10</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
         <f>(8/10)*10</f>
         <v>8</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D6" s="5">
         <v>9</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E6" s="5">
         <v>8</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f>(21.5/34)*(10)</f>
         <v>6.3235294117647056</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8">
+        <v>120</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9">
-        <v>60</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13">
+        <f>SUM(B2:M2)</f>
+        <v>43.57352941176471</v>
+      </c>
+      <c r="C14" s="13">
+        <f>(B14*40)/B11</f>
+        <v>14.524509803921569</v>
+      </c>
+      <c r="D14" s="14">
         <v>6</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" ref="F14:F18" si="0">C14+D14+E14</f>
+        <v>20.524509803921568</v>
+      </c>
+      <c r="G14" s="16">
+        <f>((F14-F22)*50)/(F23-F22)+50</f>
+        <v>63.967971530249109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="13">
+        <f>SUM(B3:M3)</f>
+        <v>112</v>
+      </c>
+      <c r="C15" s="13">
+        <f>(B15*40)/B11</f>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="D15" s="14">
         <v>9</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14">
-        <f>SUM(B2:L2)</f>
-        <v>43.57352941176471</v>
-      </c>
-      <c r="C15" s="14">
-        <f>(B15*40)/B12</f>
-        <v>29.049019607843139</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <f t="shared" ref="F15:F20" si="0">C15+D15+E15</f>
-        <v>29.049019607843139</v>
-      </c>
-      <c r="G15" s="17">
-        <f>((F15-F24)*50)/(F25-F24)+50</f>
-        <v>86.311274509803923</v>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="0"/>
+        <v>46.333333333333336</v>
+      </c>
+      <c r="G15" s="16">
+        <f>((F15-F22)*50)/(F23-F22)+50</f>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>2</v>
-      </c>
-      <c r="B16" s="14">
-        <f>SUM(B3:L3)</f>
-        <v>58.5</v>
-      </c>
-      <c r="C16" s="14">
-        <f>(B16*40)/B12</f>
-        <v>39</v>
-      </c>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
+      <c r="A16" s="10">
+        <v>4</v>
+      </c>
+      <c r="B16" s="13">
+        <f>SUM(B4:M4)</f>
+        <v>16.558823529411764</v>
+      </c>
+      <c r="C16" s="13">
+        <f>(B16*40)/B11</f>
+        <v>5.5196078431372548</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G16" s="17">
-        <f>((F16-F24)*50)/(F25-F24)+50</f>
-        <v>100</v>
+        <v>10.519607843137255</v>
+      </c>
+      <c r="G16" s="16">
+        <f>((F16-F22)*50)/(F23-F22)+50</f>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>3</v>
-      </c>
-      <c r="B17" s="14">
-        <f t="shared" ref="B15:B20" si="1">SUM(B4:L4)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="14">
-        <f>(B17*40)/B12</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="A17" s="10">
+        <v>5</v>
+      </c>
+      <c r="B17" s="13">
+        <f>SUM(B5:M5)</f>
+        <v>110</v>
+      </c>
+      <c r="C17" s="13">
+        <f>(B17*40)/B11</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="D17" s="14">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <f>((F17-F24)*50)/(F25-F24)+50</f>
-        <v>50</v>
+        <v>45.666666666666664</v>
+      </c>
+      <c r="G17" s="16">
+        <f>((F17-F22)*50)/(F23-F22)+50</f>
+        <v>99.069258143991235</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>4</v>
-      </c>
-      <c r="B18" s="14">
-        <f>SUM(B5:L5)</f>
-        <v>16.558823529411764</v>
-      </c>
-      <c r="C18" s="14">
-        <f>(B18*40)/B12</f>
-        <v>11.03921568627451</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
+      <c r="A18" s="10">
+        <v>6</v>
+      </c>
+      <c r="B18" s="13">
+        <f>SUM(B6:M6)</f>
+        <v>31.323529411764707</v>
+      </c>
+      <c r="C18" s="13">
+        <f>(B18*40)/B11</f>
+        <v>10.441176470588236</v>
+      </c>
+      <c r="D18" s="14">
+        <v>6</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>11.03921568627451</v>
-      </c>
-      <c r="G18" s="17">
-        <f>((F18-F24)*50)/(F25-F24)+50</f>
-        <v>63.799019607843135</v>
+        <v>16.441176470588236</v>
+      </c>
+      <c r="G18" s="16">
+        <f>((F18-F22)*50)/(F23-F22)+50</f>
+        <v>58.267177662195458</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>5</v>
-      </c>
-      <c r="B19" s="14">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C19" s="14">
-        <f>(B19*40)/B12</f>
-        <v>36.666666666666664</v>
-      </c>
-      <c r="D19" s="15">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <f t="shared" si="0"/>
-        <v>37.666666666666664</v>
-      </c>
-      <c r="G19" s="17">
-        <f>((F19-F24)*50)/(F25-F24)+50</f>
-        <v>97.083333333333329</v>
-      </c>
+      <c r="A19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>6</v>
-      </c>
-      <c r="B20" s="14">
-        <f>SUM(B7:L7)</f>
-        <v>31.323529411764707</v>
-      </c>
-      <c r="C20" s="14">
-        <f>(B20*40)/B12</f>
-        <v>20.882352941176471</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" si="0"/>
-        <v>20.882352941176471</v>
-      </c>
-      <c r="G20" s="17">
-        <f>((F20-F24)*50)/(F25-F24)+50</f>
-        <v>76.102941176470594</v>
-      </c>
+      <c r="A20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="18">
+        <f>MIN(F14:F21)</f>
+        <v>10.519607843137255</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="19">
-        <f>MIN(F15:F23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="19">
-        <f>MAX(F15:F20)</f>
-        <v>40</v>
+      <c r="F23" s="18">
+        <f>MAX(F14:F18)</f>
+        <v>46.333333333333336</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/115/115.xlsx
+++ b/115/115.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B6B153-452C-45E6-879A-F38A6B12736C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D194337-CE0E-4A5C-A486-761359F9D3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,6 @@
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -245,10 +240,10 @@
     <xf numFmtId="4" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,7 +631,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +771,7 @@
       <c r="I3" s="5">
         <v>10</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <v>3.5</v>
       </c>
       <c r="K3" s="5">
@@ -875,7 +870,7 @@
       <c r="L5" s="5">
         <v>10</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>5</v>
       </c>
       <c r="N5" s="1"/>
@@ -905,17 +900,17 @@
         <f>(21.5/34)*(10)</f>
         <v>6.3235294117647056</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
+      <c r="H6" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="I6" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="J6" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="K6" s="19">
+        <v>5</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -1005,11 +1000,11 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1148,11 +1143,11 @@
       </c>
       <c r="B18" s="13">
         <f>SUM(B6:M6)</f>
-        <v>31.323529411764707</v>
+        <v>47.82352941176471</v>
       </c>
       <c r="C18" s="13">
         <f>(B18*40)/B11</f>
-        <v>10.441176470588236</v>
+        <v>15.941176470588236</v>
       </c>
       <c r="D18" s="14">
         <v>6</v>
@@ -1162,11 +1157,11 @@
       </c>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>16.441176470588236</v>
+        <v>21.941176470588236</v>
       </c>
       <c r="G18" s="16">
         <f>((F18-F22)*50)/(F23-F22)+50</f>
-        <v>58.267177662195458</v>
+        <v>65.94579797426772</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">

--- a/115/115.xlsx
+++ b/115/115.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D194337-CE0E-4A5C-A486-761359F9D3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84594C90-F1B2-4428-AB19-D229E78ABFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,8 +880,8 @@
       <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
+      <c r="B6" s="19">
+        <v>5</v>
       </c>
       <c r="C6" s="5">
         <f>(8/10)*10</f>
@@ -894,7 +894,8 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <f>(4/10)*10</f>
+        <v>4</v>
       </c>
       <c r="G6" s="5">
         <f>(21.5/34)*(10)</f>
@@ -912,11 +913,11 @@
       <c r="K6" s="19">
         <v>5</v>
       </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
+      <c r="L6" s="19">
+        <v>5</v>
+      </c>
+      <c r="M6" s="19">
+        <v>3</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1143,11 +1144,11 @@
       </c>
       <c r="B18" s="13">
         <f>SUM(B6:M6)</f>
-        <v>47.82352941176471</v>
+        <v>64.823529411764696</v>
       </c>
       <c r="C18" s="13">
         <f>(B18*40)/B11</f>
-        <v>15.941176470588236</v>
+        <v>21.6078431372549</v>
       </c>
       <c r="D18" s="14">
         <v>6</v>
@@ -1157,11 +1158,11 @@
       </c>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>21.941176470588236</v>
+        <v>27.6078431372549</v>
       </c>
       <c r="G18" s="16">
         <f>((F18-F22)*50)/(F23-F22)+50</f>
-        <v>65.94579797426772</v>
+        <v>73.857103750342176</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">

--- a/115/115.xlsx
+++ b/115/115.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84594C90-F1B2-4428-AB19-D229E78ABFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB5DD72-B69A-4015-A431-26A38354FC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G14" s="16">
         <f>((F14-F22)*50)/(F23-F22)+50</f>
-        <v>63.967971530249109</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1073,11 +1073,11 @@
         <v>9</v>
       </c>
       <c r="E15" s="14">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>46.333333333333336</v>
+        <v>98.333333333333343</v>
       </c>
       <c r="G15" s="16">
         <f>((F15-F22)*50)/(F23-F22)+50</f>
@@ -1100,15 +1100,15 @@
         <v>5</v>
       </c>
       <c r="E16" s="14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>10.519607843137255</v>
+        <v>30.519607843137255</v>
       </c>
       <c r="G16" s="16">
         <f>((F16-F22)*50)/(F23-F22)+50</f>
-        <v>50</v>
+        <v>56.422856422856427</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1127,15 +1127,15 @@
         <v>9</v>
       </c>
       <c r="E17" s="14">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="0"/>
-        <v>45.666666666666664</v>
+        <v>96.666666666666657</v>
       </c>
       <c r="G17" s="16">
         <f>((F17-F22)*50)/(F23-F22)+50</f>
-        <v>99.069258143991235</v>
+        <v>98.928998928998922</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,15 +1154,15 @@
         <v>6</v>
       </c>
       <c r="E18" s="14">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>27.6078431372549</v>
+        <v>71.607843137254903</v>
       </c>
       <c r="G18" s="16">
         <f>((F18-F22)*50)/(F23-F22)+50</f>
-        <v>73.857103750342176</v>
+        <v>82.82618282618283</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F22" s="18">
         <f>MIN(F14:F21)</f>
-        <v>10.519607843137255</v>
+        <v>20.524509803921568</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="F23" s="18">
         <f>MAX(F14:F18)</f>
-        <v>46.333333333333336</v>
+        <v>98.333333333333343</v>
       </c>
     </row>
   </sheetData>

--- a/115/115.xlsx
+++ b/115/115.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\115\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB5DD72-B69A-4015-A431-26A38354FC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794C0092-34AA-4362-A1CB-794D80791327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,8 +1134,7 @@
         <v>96.666666666666657</v>
       </c>
       <c r="G17" s="16">
-        <f>((F17-F22)*50)/(F23-F22)+50</f>
-        <v>98.928998928998922</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
